--- a/과제제출/이은진/仕様書/チャットプログラム仕様書_イウンジン.xlsx
+++ b/과제제출/이은진/仕様書/チャットプログラム仕様書_イウンジン.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0F0C5C4-BD71-4DA7-B3BF-31C7C8B1A277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3312D74C-D0B4-4D2F-9DFF-A6AE8827395E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.画面遷移図" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="341">
   <si>
     <t>対象画面</t>
   </si>
@@ -382,6 +382,9 @@
     <t>スタット</t>
   </si>
   <si>
+    <t>チャット画面に移動</t>
+  </si>
+  <si>
     <t>スタットボタンを押す。プログラム始める</t>
   </si>
   <si>
@@ -628,12 +631,12 @@
     <t>役割 : ユーザーがログインした後、DBから画面番号を取得する。 該当画面番号はチャット管理画面に対応する</t>
   </si>
   <si>
+    <t>SELECT DispNo FROM DispInfo WHERE Name = 'チャット画面番号'</t>
+  </si>
+  <si>
     <t>例外処理 : 画面番号が取得できない場合、"問題が発生しました。 管理者にお問い合わせください」というエラー メッセージを表示し、処理を終了する</t>
   </si>
   <si>
-    <t>SELECT DispNo FROM DispInfo WHERE Name = 'チャット画面番号'</t>
-  </si>
-  <si>
     <t>・全体のチャットウィンドウを取得</t>
   </si>
   <si>
@@ -646,8 +649,34 @@
     <t>役割 : DBからチャットルーム全体の情報を取得する。 各チャットルームはChatRoomオブジェクトで表現され、取得したチャットルーム情報をList&lt;ChatRoom&gt;に返す</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM ChatScreens WHERE Type = '全体チャット画面番号'
-</t>
+    <t>SELECT * FROM ChatScreens WHERE Type = '全体チャット画面番号'</t>
+  </si>
+  <si>
+    <t>関数の初期化 :  接続オブジェクトを使用してデータベース サーバーに接続する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       接続が成功したら、接続オブジェクトを使用してクエリを実行し、チャットルーム全体の情報を取得する</t>
+  </si>
+  <si>
+    <t>　　 取得されたチャットルーム情報をChatRoomオブジェクトに変換し、List&lt;ChatRoom&gt;に追加する　</t>
+  </si>
+  <si>
+    <t>ChatRoom chatRoom = new ChatRoom();</t>
+  </si>
+  <si>
+    <t>chatRooms.Add(chatRoom);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   　タスクが完了したら、接続を終了</t>
+  </si>
+  <si>
+    <t>connection.Close();</t>
+  </si>
+  <si>
+    <t>例外処理 : 全体チャットルーム情報が取得できない場合、"問題が発生しました。 管理者にお問い合わせください」というエラー メッセージを表示し、処理を終了する</t>
   </si>
   <si>
     <t>・1:1チャットウィンドウを取得</t>
@@ -662,13 +691,15 @@
     <t>戻り値 : DBから該当ユーザーとの1:1チャットルーム情報を取得する。 チャットルームはChatRoomオブジェクトで表現され、取得したチャットルーム情報をChatRoomに返す</t>
   </si>
   <si>
+    <t>SELECT * FROM ChatScreens WHERE Type = '1:1 チャット画面番号' AND UserID = @UserID;</t>
+  </si>
+  <si>
+    <t>　　 接続が成功したら、接続オブジェクトを使用してクエリを実行し、そのユーザーとの 1:1 チャットルーム情報を取得する</t>
+  </si>
+  <si>
     <t>例外処理 : 1:1 チャットルームを取得できない場合、"問題が発生しました。 管理者にお問い合わせください」というエラー メッセージを表示し、処理を終了する</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT * FROM ChatScreens WHERE Type = '1:1チャット画面番号'
-</t>
-  </si>
-  <si>
     <t>・サーバー側の開発</t>
   </si>
   <si>
@@ -678,6 +709,33 @@
     <t>役割 :  サーバー ソケットを作成し、クライアントの接続を待つ</t>
   </si>
   <si>
+    <t>関数の初期化 : サーバーソケットを作成する</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      サーバーのIP アドレスとポート番号を設定する</t>
+  </si>
+  <si>
+    <t>　　サーバー ソケットを指定されたIP アドレスとポートにバインディングする　　</t>
+  </si>
+  <si>
+    <t>serverSocket.Bind(endPoint);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　クライアントの接続を待つために受信待機状態に入れる　　　　　　　　　　   </t>
+  </si>
+  <si>
+    <t>serverSocket.Listen(10);</t>
+  </si>
+  <si>
+    <t>　　Accept()メソッドを使用して、継続的にクライアント接続を受け入れる</t>
+  </si>
+  <si>
+    <t>Socket clientSocket = serverSocket.Accept();</t>
+  </si>
+  <si>
+    <t>Task.Run(() =&gt; HandleClientCommunication(clientSocket));</t>
+  </si>
+  <si>
     <t>例外処理 : SocketException、ArgumentException、InvalidOperationException、ObjectDisposedExceptionなどの例外が発生する可能瀬がある適切に処理する</t>
   </si>
   <si>
@@ -690,12 +748,45 @@
     <t>役割 :  クライアントの接続を受け入れ、そのクライアントとの通信を担当するタスク スレッドを作成する</t>
   </si>
   <si>
+    <t>関数の初期化 :  クライアントソケットをファクターとして受け取る</t>
+  </si>
+  <si>
+    <t>　　 クライアント接続を受け入れ、そのクライアントとの通信を担当するタスク スレッドを作成する</t>
+  </si>
+  <si>
+    <t>　    クライアントとの通信のためにソケットを非同期モードに設定　</t>
+  </si>
+  <si>
+    <t>byte[] buffer = new byte[1024];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">　　クライアントからメッセージを非同期に受信し、受信したメッセージを他のクライアントに転送するReceiveMessage（）関数を呼び出す　　　　　　   </t>
+  </si>
+  <si>
+    <t>clientSocket.BeginReceive(buffer, 0, buffer.Length, SocketFlags.None, new AsyncCallback(ReceiveCallback), clientSocket);</t>
+  </si>
+  <si>
     <t>内部関数名 : ReceiveMessage()</t>
   </si>
   <si>
     <t>役割 :  クライアントからメッセージを非同期的に受信し、受信したメッセージを別のクライアントに送信する</t>
   </si>
   <si>
+    <t>　　 クライアントから非同期にメッセージを受信する。 このために非同期ソケット受信タスクを設定する</t>
+  </si>
+  <si>
+    <t>　    受信したメッセージがある場合は、受信したメッセージを別のクライアントに送信する</t>
+  </si>
+  <si>
+    <t>string receivedMessage = Encoding.UTF8.GetString(buffer, 0, bytesRead);</t>
+  </si>
+  <si>
+    <t>string processedMessage = ProcessMessage(receivedMessage);</t>
+  </si>
+  <si>
+    <t>SendToOtherClients(processedMessage);</t>
+  </si>
+  <si>
     <t>例外処理 : メッセージの受信過程で発生する例外を適切に処理する</t>
   </si>
   <si>
@@ -711,7 +802,22 @@
     <t>役割 :  サーバーへの非同期接続を試行し、ソケット通信を実行するタスクスレッドを作成する</t>
   </si>
   <si>
-    <t>例外処理 : サーバー接続中に発生する例外を適切に処理する</t>
+    <t>関数の初期化 :  サーバーソケット作成及接続試み</t>
+  </si>
+  <si>
+    <t>Socket clientSocket = new Socket(serverIP, serverPort);</t>
+  </si>
+  <si>
+    <t>　　 ソケット接続完了後に処理するタスクスレッドを作成する</t>
+  </si>
+  <si>
+    <t>Thread thread = new Thread(() -&gt; HandleServerConnection(clientSocket));</t>
+  </si>
+  <si>
+    <t>thread.start();</t>
+  </si>
+  <si>
+    <t>例外処理 : サーバー接続する時エラーが発生した場合、"問題が発生しました。 管理者にお問い合わせください"というエラー メッセージを表示し、処理を終了する</t>
   </si>
   <si>
     <t>内部関数名 : SendMessage(Socket serverSocket, string message)</t>
@@ -723,21 +829,45 @@
     <t>役割 :  サーバーにメッセージを非同期的に送信する</t>
   </si>
   <si>
+    <t>関数の初期化 : サーバー ソケットとメッセージを引数として受け取る</t>
+  </si>
+  <si>
+    <t>byte[] data = Encoding.UTF8.GetBytes(message);</t>
+  </si>
+  <si>
+    <t>　　 メッセージを非同期にサーバーに送信</t>
+  </si>
+  <si>
+    <t>serverSocket.BeginSend(data, 0, data.Length, SocketFlags.None, new AsyncCallback(SendCallback), serverSocket);</t>
+  </si>
+  <si>
+    <t>例外処理 : メッセージの送信中に例外が発生した場合、 "メッセージ送信に問題が発生しました。"というエラーメッセージを表示し、処理を終了する</t>
+  </si>
+  <si>
+    <t>・チャット機能の実装</t>
+  </si>
+  <si>
+    <t>内部関数名 : DisplayChatMessage(string nickname, string message, DateTime time)</t>
+  </si>
+  <si>
+    <t>引数 : ニックネーム(string)、メッセージ(string)、時間(DateTime)</t>
+  </si>
+  <si>
+    <t>役割 :  チャット ウィンドウにニックネーム、メッセージ、時間を表示する</t>
+  </si>
+  <si>
+    <t>関数の初期化 : ニックネーム、メッセージ、時間を引数として受け取る</t>
+  </si>
+  <si>
+    <t>　　受け取ったファクターをチャットウィンドウに表示します</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System.out.println("[" + time.ToString() + "] " + nickname + ": " + message);</t>
+  </si>
+  <si>
     <t>例外処理 : メッセージの送信中に発生する例外を適切に処理する</t>
   </si>
   <si>
-    <t>・チャット機能の実装</t>
-  </si>
-  <si>
-    <t>内部関数名 : DisplayChatMessage(string nickname, string message, DateTime time)</t>
-  </si>
-  <si>
-    <t>引数 : ニックネーム(string)、メッセージ(string)、時間(DateTime)</t>
-  </si>
-  <si>
-    <t>役割 :  チャット ウィンドウにニックネーム、メッセージ、時間を表示する</t>
-  </si>
-  <si>
     <t>内部関数名 : ValidateInput(string input)</t>
   </si>
   <si>
@@ -750,7 +880,13 @@
     <t>役割 :  入力値の有効性をチェックし、有効な場合はtrueを返す</t>
   </si>
   <si>
-    <t>・ 例外処理 : ソケット接続、通信などの過程で発生する例外を適切に処理してプログラムの安定性を保障する</t>
+    <t>関数の初期化 : 入力値の有効性をチェック</t>
+  </si>
+  <si>
+    <t>if (input != null &amp;&amp; input.Length &gt; 0)</t>
+  </si>
+  <si>
+    <t>有効な場合はtrueを返し、そうでない場合はfalseを返す</t>
   </si>
   <si>
     <t>・ データベース処理</t>
@@ -762,16 +898,18 @@
     <t>役割 :  データベースにチャット メッセージを保存する</t>
   </si>
   <si>
-    <t>有効性チェック : 入力値の有効性をチェックする必要がある</t>
+    <t>関数の初期化 : データベースにチャットメッセージを保存する</t>
+  </si>
+  <si>
+    <t>INSERT INTO ChatMessages (Nickname, Message, Time) VALUES ('ニックネーム'、 'メッセージ'、 '時間');</t>
+  </si>
+  <si>
+    <t>有効性チェック : ニックネーム値とメッセージ値がnullではなく、空いてないのかを確認する。</t>
   </si>
   <si>
     <t>例外処理 : データベース接続エラー、クエリ実行エラーなどが発生する時例外を適切に処理する</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT Nickname, Message, Time FROM ChatMessages;
-</t>
-  </si>
-  <si>
     <t>内部関数名 : GetChatHistory()</t>
   </si>
   <si>
@@ -781,13 +919,25 @@
     <t>役割 :  データベースから保存されているチャット履歴を取得する</t>
   </si>
   <si>
-    <t>INSERT INTO ChatMessages (Nickname, Message, Time) VALUES ('ニックネーム'、 'メッセージ'、 '時間');</t>
+    <t>関数の初期化 :  チャット履歴を含む空のリストchatHistoryを作成</t>
+  </si>
+  <si>
+    <t>List&lt;ChatMessage&gt; chatHistory = new List&lt;ChatMessage&gt;();</t>
+  </si>
+  <si>
+    <t>データベースからチャットメッセージを引き出す</t>
+  </si>
+  <si>
+    <t>SELECT Nickname, Message, Time FROM ChatMessages;</t>
+  </si>
+  <si>
+    <t>各チャット履歴は、ChatMessageオブジェクトとして作成し、chatHistoryリストに追加する</t>
   </si>
   <si>
     <t>・ ユーザー情報確認</t>
   </si>
   <si>
-    <t>内部関数名 : GetUserInfo()</t>
+    <t>内部関数名 :  GetUserInfo(string userId)</t>
   </si>
   <si>
     <t>引数 : 会員ID (string)</t>
@@ -799,12 +949,21 @@
     <t>役割 :  データベースから会員の登録情報を取得する</t>
   </si>
   <si>
+    <t>関数の初期化 :  与えられた会員IDに該当する会員情報をデータベースから取得する</t>
+  </si>
+  <si>
+    <t>SELECT UserId, Nickname, Email FROM Users WHERE UserId = '会員ID';</t>
+  </si>
+  <si>
+    <t>データベースから持ってきた情報でUserInfoオブジェクトを初期化する</t>
+  </si>
+  <si>
+    <t>userInfo = new UserInfo</t>
+  </si>
+  <si>
     <t>有効性チェック : 会員IDは必須値である</t>
   </si>
   <si>
-    <t>SELECT UserId, Nickname, Email FROM Users WHERE UserId = '会員ID';</t>
-  </si>
-  <si>
     <t>・ ニックネーム変更</t>
   </si>
   <si>
@@ -817,13 +976,16 @@
     <t>役割 :  ユーザーのニックネームを変更する</t>
   </si>
   <si>
-    <t>有効性チェック : 会員IDと新しいニックネームは必須値である</t>
+    <t>関数の初期化 :  if (ValidateInput(userId) &amp;&amp; ValidateInput(newNickname))</t>
   </si>
   <si>
     <t xml:space="preserve">UPDATE Users SET Nickname = '新しいニックネーム' WHERE UserId = '会員ID';
 </t>
   </si>
   <si>
+    <t>有効性チェック : 会員IDと新しいニックネームは必須値である</t>
+  </si>
+  <si>
     <t>・ 会員退会</t>
   </si>
   <si>
@@ -836,6 +998,16 @@
     <t>役割 : 与えられたユーザーIDに基づいて会員を脱退させる。 そのユーザーの情報をデータベースから削除する</t>
   </si>
   <si>
+    <t>関数の初期化 :  bool DeleteUser(string userId)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE FROM Users WHERE ID = 'ユーザーID'
+</t>
+  </si>
+  <si>
+    <t>　　　セッションの終了およびログイン ページに移動する</t>
+  </si>
+  <si>
     <t>有効性チェック : マイページで、「会員退会」ボタンをクリック</t>
   </si>
   <si>
@@ -851,9 +1023,6 @@
     <t xml:space="preserve"> 会員退会に失敗した場合は、適切なエラー メッセージを表示する</t>
   </si>
   <si>
-    <t>DELETE FROM Users WHERE ID = 'ユーザーID'</t>
-  </si>
-  <si>
     <t>・ チャット履歴を取得</t>
   </si>
   <si>
@@ -863,12 +1032,21 @@
     <t>役割 : 与えられたユーザーIDに基づいて、そのユーザーのチャット履歴をデータベースから取得する</t>
   </si>
   <si>
+    <t>関数の初期化 : List&lt;string&gt; chatHistory = new List&lt;string&gt;();</t>
+  </si>
+  <si>
+    <t>データベースからチャット履歴を取得する</t>
+  </si>
+  <si>
+    <t>SELECT Message FROM ChatHistory WHERE UserID = 'ユーザーID';</t>
+  </si>
+  <si>
+    <t>持ってきた情報をチャット履歴をchatHistoryに追加する</t>
+  </si>
+  <si>
     <t>例外処理 : データベースからのチャット履歴の照会中に発生する例外を適切に処理する</t>
   </si>
   <si>
-    <t>SELECT Message FROM ChatHistory WHERE UserID = 'ユーザーID'</t>
-  </si>
-  <si>
     <t>・ 全体ユーザー情報取得</t>
   </si>
   <si>
@@ -884,10 +1062,25 @@
     <t>役割 : データベースからプログラムに加入しているユーザーの情報を全部に取得する</t>
   </si>
   <si>
+    <t>関数の初期化 : List&lt;UserInfo&gt; allUsers = new List&lt;UserInfo&gt;();</t>
+  </si>
+  <si>
+    <t>管理者IDの有効性を確認する</t>
+  </si>
+  <si>
+    <t>if (ValidateInput(adminId))</t>
+  </si>
+  <si>
+    <t>データベースからプログラムに参加しているすべてのユーザーの情報を取得する</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Users</t>
+  </si>
+  <si>
+    <t>持ってきた情報をUserInfoオブジェクトを初期化した後、allUsersに追加をchatHistoryに追加する</t>
+  </si>
+  <si>
     <t>有効性チェック: 管理者IDが有効であることを確認する</t>
-  </si>
-  <si>
-    <t>SELECT * FROM Users</t>
   </si>
   <si>
     <t>ファイル名</t>
@@ -1418,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1519,6 +1712,45 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1528,50 +1760,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1612,40 +1808,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1684,15 +1877,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1711,6 +1895,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1724,6 +1917,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1732,12 +1931,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -4503,7 +4697,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -5115,13 +5309,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5158,15 +5352,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5184,8 +5378,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2505075" y="1876425"/>
-          <a:ext cx="342900" cy="285750"/>
+          <a:off x="2638425" y="1981200"/>
+          <a:ext cx="342900" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5232,15 +5426,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5258,8 +5452,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3829050" y="1857375"/>
-          <a:ext cx="342900" cy="285750"/>
+          <a:off x="3876675" y="1962150"/>
+          <a:ext cx="342900" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5401,13 +5595,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5569,13 +5763,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5737,13 +5931,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5909,14 +6103,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5932,8 +6126,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="352425"/>
-          <a:ext cx="2028825" cy="504825"/>
+          <a:off x="685800" y="142875"/>
+          <a:ext cx="2028825" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6001,14 +6195,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6026,7 +6220,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="21431250"/>
+          <a:off x="685800" y="23983950"/>
           <a:ext cx="2028825" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6175,15 +6369,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>168</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>170</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6201,7 +6395,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="37147500"/>
+          <a:off x="695325" y="39681150"/>
           <a:ext cx="2028825" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6350,15 +6544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6376,7 +6570,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="5486400"/>
+          <a:off x="685800" y="5162550"/>
           <a:ext cx="2028825" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6834,7 +7028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -6861,8 +7055,8 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="1:12" ht="16.5" customHeight="1">
@@ -6875,8 +7069,8 @@
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
-      <c r="J3" s="117"/>
-      <c r="K3" s="117"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118"/>
       <c r="L3" s="10"/>
     </row>
     <row r="7" spans="1:12">
@@ -6929,32 +7123,32 @@
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" customHeight="1">
       <c r="A1" s="7"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
       <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" customHeight="1">
       <c r="A2" s="7"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1">
@@ -6967,8 +7161,8 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" customHeight="1">
@@ -6981,38 +7175,38 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
+      <c r="J4" s="119"/>
+      <c r="K4" s="119"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="67" t="s">
+      <c r="D5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="70"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
       <c r="L5" s="7"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="72"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
+      <c r="J6" s="119"/>
+      <c r="K6" s="119"/>
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:16">
@@ -7025,8 +7219,8 @@
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
+      <c r="J7" s="119"/>
+      <c r="K7" s="119"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:16">
@@ -7039,78 +7233,78 @@
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="J8" s="119"/>
+      <c r="K8" s="119"/>
       <c r="L8" s="7"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="7"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="7"/>
       <c r="E9" s="32" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="64" t="s">
+      <c r="G9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="65"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="7"/>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="74"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="7"/>
       <c r="E10" s="33" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="73" t="s">
+      <c r="G10" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="74"/>
+      <c r="H10" s="75"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="7"/>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="64"/>
       <c r="D11" s="7"/>
       <c r="E11" s="34" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="7"/>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="63"/>
+      <c r="H11" s="64"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="7"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="63"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="7"/>
       <c r="E12" s="22" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="7"/>
-      <c r="G12" s="62" t="s">
+      <c r="G12" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="63"/>
+      <c r="H12" s="64"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="7"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="118"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
       <c r="D13" s="7"/>
       <c r="E13" s="35"/>
       <c r="F13" s="7"/>
@@ -7121,8 +7315,8 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="7"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
       <c r="D14" s="7"/>
       <c r="E14" s="35"/>
       <c r="F14" s="7"/>
@@ -7137,10 +7331,10 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="66"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
@@ -7155,17 +7349,17 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="62" t="s">
+      <c r="F16" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="63"/>
+      <c r="G16" s="64"/>
       <c r="H16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
-      <c r="N16" s="118"/>
-      <c r="O16" s="118"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="1:16">
@@ -7174,18 +7368,18 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="62" t="s">
+      <c r="F17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="63"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
-      <c r="N17" s="118"/>
-      <c r="O17" s="118"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="119"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="1:16">
@@ -7194,18 +7388,18 @@
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="62" t="s">
+      <c r="F18" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="63"/>
+      <c r="G18" s="64"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="118"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="1:16">
@@ -7214,14 +7408,14 @@
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="63"/>
+      <c r="G19" s="64"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
-      <c r="J19" s="118"/>
-      <c r="K19" s="118"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:16">
@@ -7230,8 +7424,8 @@
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
       <c r="H20" s="7"/>
     </row>
     <row r="21" spans="1:16">
@@ -7244,8 +7438,8 @@
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
-      <c r="J21" s="118"/>
-      <c r="K21" s="118"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:16">
@@ -7258,8 +7452,8 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
-      <c r="J22" s="118"/>
-      <c r="K22" s="118"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:16">
@@ -7320,12 +7514,12 @@
       <c r="E26" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="51" t="s">
+      <c r="F26" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="77"/>
       <c r="J26" s="12" t="s">
         <v>27</v>
       </c>
@@ -7334,24 +7528,24 @@
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="7"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="62" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="D27" s="62" t="s">
         <v>29</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="80"/>
       <c r="J27" s="17" t="s">
         <v>32</v>
       </c>
@@ -7360,18 +7554,18 @@
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="7"/>
-      <c r="B28" s="53"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="53"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="18"/>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="82"/>
       <c r="J28" s="17" t="s">
         <v>32</v>
       </c>
@@ -7380,18 +7574,18 @@
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="7"/>
-      <c r="B29" s="53"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="53"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="19"/>
-      <c r="F29" s="60" t="s">
+      <c r="F29" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="50"/>
       <c r="J29" s="17" t="s">
         <v>32</v>
       </c>
@@ -7400,24 +7594,24 @@
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="7"/>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="83" t="s">
         <v>37</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="83" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="80"/>
       <c r="J30" s="17" t="s">
         <v>32</v>
       </c>
@@ -7426,18 +7620,18 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="7"/>
-      <c r="B31" s="59"/>
+      <c r="B31" s="83"/>
       <c r="C31" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="59"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="20"/>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
       <c r="J31" s="17" t="s">
         <v>32</v>
       </c>
@@ -7446,18 +7640,18 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="7"/>
-      <c r="B32" s="59"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="19"/>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="61"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="50"/>
       <c r="J32" s="17" t="s">
         <v>32</v>
       </c>
@@ -7466,20 +7660,20 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="7"/>
-      <c r="B33" s="59"/>
+      <c r="B33" s="83"/>
       <c r="C33" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="79" t="s">
+      <c r="F33" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="G33" s="79"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="80"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
       <c r="J33" s="17" t="s">
         <v>32</v>
       </c>
@@ -7488,18 +7682,18 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="7"/>
-      <c r="B34" s="59"/>
+      <c r="B34" s="83"/>
       <c r="C34" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="21"/>
-      <c r="F34" s="81" t="s">
+      <c r="F34" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="82"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="17" t="s">
         <v>32</v>
       </c>
@@ -7508,24 +7702,24 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="7"/>
-      <c r="B35" s="85" t="s">
+      <c r="B35" s="60" t="s">
         <v>48</v>
       </c>
       <c r="C35" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="62" t="s">
         <v>50</v>
       </c>
       <c r="E35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="83" t="s">
+      <c r="F35" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="84"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="56"/>
       <c r="J35" s="17" t="s">
         <v>32</v>
       </c>
@@ -7534,18 +7728,18 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="7"/>
-      <c r="B36" s="86"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="53"/>
+      <c r="D36" s="62"/>
       <c r="E36" s="14"/>
-      <c r="F36" s="44" t="s">
+      <c r="F36" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="46"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="59"/>
       <c r="J36" s="17" t="s">
         <v>32</v>
       </c>
@@ -7554,36 +7748,36 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="7"/>
-      <c r="B37" s="86"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="53"/>
+      <c r="D37" s="62"/>
       <c r="E37" s="23"/>
-      <c r="F37" s="44" t="s">
+      <c r="F37" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="45"/>
-      <c r="H37" s="45"/>
-      <c r="I37" s="46"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="59"/>
       <c r="J37" s="17"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="7"/>
-      <c r="B38" s="86"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="53"/>
+      <c r="D38" s="62"/>
       <c r="E38" s="14"/>
-      <c r="F38" s="83" t="s">
+      <c r="F38" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="83"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="84"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="17" t="s">
         <v>32</v>
       </c>
@@ -7592,18 +7786,18 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="7"/>
-      <c r="B39" s="86"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="53"/>
+      <c r="D39" s="62"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="83" t="s">
+      <c r="F39" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="83"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="84"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="17" t="s">
         <v>32</v>
       </c>
@@ -7612,18 +7806,18 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="7"/>
-      <c r="B40" s="86"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="53"/>
+      <c r="D40" s="62"/>
       <c r="E40" s="14"/>
-      <c r="F40" s="83" t="s">
+      <c r="F40" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="84"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="17" t="s">
         <v>32</v>
       </c>
@@ -7632,24 +7826,24 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="7"/>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="84" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="86" t="s">
         <v>56</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F41" s="119" t="s">
+      <c r="F41" s="120" t="s">
         <v>58</v>
       </c>
-      <c r="G41" s="120"/>
-      <c r="H41" s="120"/>
-      <c r="I41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="122"/>
       <c r="J41" s="17" t="s">
         <v>32</v>
       </c>
@@ -7658,18 +7852,18 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="7"/>
-      <c r="B42" s="49"/>
+      <c r="B42" s="85"/>
       <c r="C42" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="50"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="122" t="s">
+      <c r="F42" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="G42" s="122"/>
-      <c r="H42" s="122"/>
-      <c r="I42" s="123"/>
+      <c r="G42" s="123"/>
+      <c r="H42" s="123"/>
+      <c r="I42" s="124"/>
       <c r="J42" s="17" t="s">
         <v>32</v>
       </c>
@@ -7678,16 +7872,16 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="7"/>
-      <c r="B43" s="49"/>
+      <c r="B43" s="85"/>
       <c r="C43" s="25"/>
-      <c r="D43" s="50"/>
+      <c r="D43" s="86"/>
       <c r="E43" s="14"/>
-      <c r="F43" s="124" t="s">
+      <c r="F43" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="126"/>
       <c r="J43" s="17" t="s">
         <v>32</v>
       </c>
@@ -7696,18 +7890,18 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="7"/>
-      <c r="B44" s="49"/>
+      <c r="B44" s="85"/>
       <c r="C44" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D44" s="50"/>
+      <c r="D44" s="86"/>
       <c r="E44" s="14"/>
-      <c r="F44" s="122" t="s">
+      <c r="F44" s="123" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="122"/>
-      <c r="H44" s="122"/>
-      <c r="I44" s="123"/>
+      <c r="G44" s="123"/>
+      <c r="H44" s="123"/>
+      <c r="I44" s="124"/>
       <c r="J44" s="17" t="s">
         <v>32</v>
       </c>
@@ -7716,16 +7910,16 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="7"/>
-      <c r="B45" s="49"/>
+      <c r="B45" s="85"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="50"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="14"/>
-      <c r="F45" s="124" t="s">
+      <c r="F45" s="125" t="s">
         <v>60</v>
       </c>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="126"/>
       <c r="J45" s="17" t="s">
         <v>32</v>
       </c>
@@ -7734,20 +7928,20 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="7"/>
-      <c r="B46" s="49"/>
+      <c r="B46" s="85"/>
       <c r="C46" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="50"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="F46" s="118" t="s">
+      <c r="F46" s="119" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="118"/>
-      <c r="H46" s="118"/>
-      <c r="I46" s="126"/>
+      <c r="G46" s="119"/>
+      <c r="H46" s="119"/>
+      <c r="I46" s="127"/>
       <c r="J46" s="28" t="s">
         <v>32</v>
       </c>
@@ -7756,78 +7950,78 @@
     </row>
     <row r="47" spans="1:12" s="31" customFormat="1">
       <c r="A47" s="36"/>
-      <c r="B47" s="75" t="s">
+      <c r="B47" s="44" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D47" s="75" t="s">
+      <c r="D47" s="44" t="s">
         <v>65</v>
       </c>
       <c r="E47" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="76" t="s">
+      <c r="F47" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="78"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="47"/>
       <c r="J47" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:12" s="31" customFormat="1">
       <c r="A48" s="36"/>
-      <c r="B48" s="75"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D48" s="75"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="29"/>
-      <c r="F48" s="47" t="s">
+      <c r="F48" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
       <c r="J48" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:12" s="31" customFormat="1">
       <c r="A49" s="36"/>
-      <c r="B49" s="75"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D49" s="75"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="29"/>
-      <c r="F49" s="47" t="s">
+      <c r="F49" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
       <c r="J49" s="30" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:12" s="31" customFormat="1">
       <c r="A50" s="36"/>
-      <c r="B50" s="75"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="75"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="29"/>
-      <c r="F50" s="47" t="s">
+      <c r="F50" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
       <c r="J50" s="30" t="s">
         <v>32</v>
       </c>
@@ -7842,8 +8036,8 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="119"/>
       <c r="L51" s="7"/>
     </row>
     <row r="52" spans="1:12">
@@ -7856,8 +8050,8 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
+      <c r="J52" s="119"/>
+      <c r="K52" s="119"/>
       <c r="L52" s="7"/>
     </row>
     <row r="53" spans="1:12">
@@ -7870,8 +8064,8 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118"/>
+      <c r="J53" s="119"/>
+      <c r="K53" s="119"/>
       <c r="L53" s="7"/>
     </row>
     <row r="54" spans="1:12">
@@ -7884,8 +8078,8 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
+      <c r="J54" s="119"/>
+      <c r="K54" s="119"/>
       <c r="L54" s="7"/>
     </row>
     <row r="55" spans="1:12">
@@ -7898,8 +8092,8 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="118"/>
+      <c r="J55" s="119"/>
+      <c r="K55" s="119"/>
       <c r="L55" s="7"/>
     </row>
     <row r="56" spans="1:12">
@@ -7912,8 +8106,8 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="118"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="119"/>
       <c r="L56" s="7"/>
     </row>
     <row r="57" spans="1:12">
@@ -7926,8 +8120,8 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
+      <c r="J57" s="119"/>
+      <c r="K57" s="119"/>
       <c r="L57" s="7"/>
     </row>
     <row r="58" spans="1:12">
@@ -7940,8 +8134,8 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
+      <c r="J58" s="119"/>
+      <c r="K58" s="119"/>
       <c r="L58" s="7"/>
     </row>
     <row r="59" spans="1:12">
@@ -7954,8 +8148,8 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
-      <c r="J59" s="118"/>
-      <c r="K59" s="118"/>
+      <c r="J59" s="119"/>
+      <c r="K59" s="119"/>
       <c r="L59" s="7"/>
     </row>
     <row r="60" spans="1:12">
@@ -7968,8 +8162,8 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
-      <c r="J60" s="118"/>
-      <c r="K60" s="118"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="119"/>
       <c r="L60" s="7"/>
     </row>
     <row r="61" spans="1:12">
@@ -7982,8 +8176,8 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="118"/>
+      <c r="J61" s="119"/>
+      <c r="K61" s="119"/>
       <c r="L61" s="7"/>
     </row>
     <row r="62" spans="1:12">
@@ -7996,8 +8190,8 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
-      <c r="J62" s="118"/>
-      <c r="K62" s="118"/>
+      <c r="J62" s="119"/>
+      <c r="K62" s="119"/>
       <c r="L62" s="7"/>
     </row>
     <row r="63" spans="1:12">
@@ -8010,8 +8204,8 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
-      <c r="J63" s="118"/>
-      <c r="K63" s="118"/>
+      <c r="J63" s="119"/>
+      <c r="K63" s="119"/>
       <c r="L63" s="7"/>
     </row>
     <row r="64" spans="1:12">
@@ -8024,8 +8218,8 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
-      <c r="J64" s="118"/>
-      <c r="K64" s="118"/>
+      <c r="J64" s="119"/>
+      <c r="K64" s="119"/>
       <c r="L64" s="7"/>
     </row>
     <row r="65" spans="1:12">
@@ -8038,8 +8232,8 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
-      <c r="J65" s="118"/>
-      <c r="K65" s="118"/>
+      <c r="J65" s="119"/>
+      <c r="K65" s="119"/>
       <c r="L65" s="7"/>
     </row>
     <row r="66" spans="1:12">
@@ -8052,8 +8246,8 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
       <c r="I66" s="7"/>
-      <c r="J66" s="118"/>
-      <c r="K66" s="118"/>
+      <c r="J66" s="119"/>
+      <c r="K66" s="119"/>
       <c r="L66" s="7"/>
     </row>
     <row r="67" spans="1:12">
@@ -8066,8 +8260,8 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
       <c r="I67" s="7"/>
-      <c r="J67" s="118"/>
-      <c r="K67" s="118"/>
+      <c r="J67" s="119"/>
+      <c r="K67" s="119"/>
       <c r="L67" s="7"/>
     </row>
     <row r="68" spans="1:12">
@@ -8080,8 +8274,8 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
       <c r="I68" s="7"/>
-      <c r="J68" s="118"/>
-      <c r="K68" s="118"/>
+      <c r="J68" s="119"/>
+      <c r="K68" s="119"/>
       <c r="L68" s="7"/>
     </row>
     <row r="69" spans="1:12">
@@ -8094,8 +8288,8 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
-      <c r="J69" s="118"/>
-      <c r="K69" s="118"/>
+      <c r="J69" s="119"/>
+      <c r="K69" s="119"/>
       <c r="L69" s="7"/>
     </row>
     <row r="70" spans="1:12">
@@ -8108,8 +8302,8 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
-      <c r="J70" s="118"/>
-      <c r="K70" s="118"/>
+      <c r="J70" s="119"/>
+      <c r="K70" s="119"/>
       <c r="L70" s="7"/>
     </row>
     <row r="71" spans="1:12">
@@ -8122,8 +8316,8 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
-      <c r="J71" s="118"/>
-      <c r="K71" s="118"/>
+      <c r="J71" s="119"/>
+      <c r="K71" s="119"/>
       <c r="L71" s="7"/>
     </row>
     <row r="72" spans="1:12">
@@ -8136,8 +8330,8 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="118"/>
-      <c r="K72" s="118"/>
+      <c r="J72" s="119"/>
+      <c r="K72" s="119"/>
       <c r="L72" s="7"/>
     </row>
     <row r="73" spans="1:12">
@@ -8150,12 +8344,86 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
-      <c r="J73" s="118"/>
-      <c r="K73" s="118"/>
+      <c r="J73" s="119"/>
+      <c r="K73" s="119"/>
       <c r="L73" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="90">
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="D41:D46"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="F46:I46"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="D5:F6"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="D47:D50"/>
     <mergeCell ref="F47:I47"/>
@@ -8172,80 +8440,6 @@
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="B35:B40"/>
     <mergeCell ref="D35:D40"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="D5:F6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="B41:B46"/>
-    <mergeCell ref="D41:D46"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="F46:I46"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="J71:K71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8256,7 +8450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63E0C49-97E0-40C1-BCD5-F46B13531BD1}">
   <dimension ref="A2:AJ29"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
@@ -8267,80 +8461,80 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:36">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="127"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
     </row>
@@ -8579,6 +8773,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O26:Z26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="O25:Z25"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:Z29"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:Z28"/>
+    <mergeCell ref="AA28:AD28"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
@@ -8595,32 +8815,6 @@
     <mergeCell ref="S2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:Z28"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="O25:Z25"/>
-    <mergeCell ref="AA25:AD25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="O26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8631,90 +8825,91 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B407138-FC74-41E2-A748-40068DDA5ECC}">
   <dimension ref="A2:AJ30"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AI25" sqref="AI25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5"/>
   <cols>
+    <col min="14" max="14" width="5" customWidth="1"/>
     <col min="26" max="26" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:36">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="127"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
     </row>
@@ -8831,26 +9026,26 @@
       <c r="L27" s="97"/>
       <c r="M27" s="97"/>
       <c r="N27" s="98"/>
-      <c r="O27" s="102" t="s">
+      <c r="O27" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="P27" s="103"/>
-      <c r="Q27" s="103"/>
-      <c r="R27" s="103"/>
-      <c r="S27" s="103"/>
-      <c r="T27" s="103"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="103"/>
-      <c r="Z27" s="104"/>
-      <c r="AA27" s="105" t="s">
+      <c r="P27" s="100"/>
+      <c r="Q27" s="100"/>
+      <c r="R27" s="100"/>
+      <c r="S27" s="100"/>
+      <c r="T27" s="100"/>
+      <c r="U27" s="100"/>
+      <c r="V27" s="100"/>
+      <c r="W27" s="100"/>
+      <c r="X27" s="100"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="106"/>
-      <c r="AD27" s="107"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="104"/>
     </row>
     <row r="28" spans="2:30">
       <c r="B28" s="2">
@@ -8874,8 +9069,293 @@
       <c r="L28" s="97"/>
       <c r="M28" s="97"/>
       <c r="N28" s="98"/>
+      <c r="O28" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28" s="106"/>
+      <c r="Q28" s="106"/>
+      <c r="R28" s="106"/>
+      <c r="S28" s="106"/>
+      <c r="T28" s="106"/>
+      <c r="U28" s="106"/>
+      <c r="V28" s="106"/>
+      <c r="W28" s="106"/>
+      <c r="X28" s="106"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="107"/>
+      <c r="AA28" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB28" s="97"/>
+      <c r="AC28" s="97"/>
+      <c r="AD28" s="98"/>
+    </row>
+    <row r="29" spans="2:30">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="C29" s="96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="98"/>
+      <c r="K29" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="97"/>
+      <c r="M29" s="97"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB29" s="97"/>
+      <c r="AC29" s="97"/>
+      <c r="AD29" s="98"/>
+    </row>
+    <row r="30" spans="2:30">
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="107"/>
+      <c r="AA30" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB30" s="97"/>
+      <c r="AC30" s="97"/>
+      <c r="AD30" s="98"/>
+    </row>
+  </sheetData>
+  <mergeCells count="37">
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="O30:Z30"/>
+    <mergeCell ref="AA30:AD30"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="O28:Z28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:Z29"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:R3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2C3EC1-EE98-46F1-AEA6-DC77394D1F05}">
+  <dimension ref="A2:AJ32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AL22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="26" max="26" width="9.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:36">
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+    </row>
+    <row r="11" spans="1:36">
+      <c r="V11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
+      <c r="V15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30">
+      <c r="V17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30">
+      <c r="V21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30">
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="96" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="96" t="s">
+        <v>81</v>
+      </c>
+      <c r="L28" s="97"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
       <c r="O28" s="99" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="P28" s="100"/>
       <c r="Q28" s="100"/>
@@ -8888,19 +9368,19 @@
       <c r="X28" s="100"/>
       <c r="Y28" s="100"/>
       <c r="Z28" s="101"/>
-      <c r="AA28" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="98"/>
+      <c r="AA28" s="102" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="103"/>
+      <c r="AD28" s="104"/>
     </row>
     <row r="29" spans="2:30">
       <c r="B29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
@@ -8917,20 +9397,20 @@
       <c r="L29" s="97"/>
       <c r="M29" s="97"/>
       <c r="N29" s="98"/>
-      <c r="O29" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="101"/>
+      <c r="O29" s="105" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="107"/>
       <c r="AA29" s="96" t="s">
         <v>86</v>
       </c>
@@ -8940,16 +9420,16 @@
     </row>
     <row r="30" spans="2:30">
       <c r="B30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="96" t="s">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="D30" s="97"/>
       <c r="E30" s="97"/>
       <c r="F30" s="98"/>
       <c r="G30" s="96" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="H30" s="97"/>
       <c r="I30" s="97"/>
@@ -8960,20 +9440,20 @@
       <c r="L30" s="97"/>
       <c r="M30" s="97"/>
       <c r="N30" s="98"/>
-      <c r="O30" s="99" t="s">
-        <v>103</v>
-      </c>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="101"/>
+      <c r="O30" s="105" t="s">
+        <v>101</v>
+      </c>
+      <c r="P30" s="106"/>
+      <c r="Q30" s="106"/>
+      <c r="R30" s="106"/>
+      <c r="S30" s="106"/>
+      <c r="T30" s="106"/>
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="106"/>
+      <c r="Z30" s="107"/>
       <c r="AA30" s="96" t="s">
         <v>86</v>
       </c>
@@ -8981,8 +9461,94 @@
       <c r="AC30" s="97"/>
       <c r="AD30" s="98"/>
     </row>
+    <row r="31" spans="2:30">
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="96" t="s">
+        <v>105</v>
+      </c>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="96" t="s">
+        <v>99</v>
+      </c>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31" s="106"/>
+      <c r="Q31" s="106"/>
+      <c r="R31" s="106"/>
+      <c r="S31" s="106"/>
+      <c r="T31" s="106"/>
+      <c r="U31" s="106"/>
+      <c r="V31" s="106"/>
+      <c r="W31" s="106"/>
+      <c r="X31" s="106"/>
+      <c r="Y31" s="106"/>
+      <c r="Z31" s="107"/>
+      <c r="AA31" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB31" s="97"/>
+      <c r="AC31" s="97"/>
+      <c r="AD31" s="98"/>
+    </row>
+    <row r="32" spans="2:30" ht="16.5" customHeight="1">
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="98"/>
+      <c r="O32" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="P32" s="106"/>
+      <c r="Q32" s="106"/>
+      <c r="R32" s="106"/>
+      <c r="S32" s="106"/>
+      <c r="T32" s="106"/>
+      <c r="U32" s="106"/>
+      <c r="V32" s="106"/>
+      <c r="W32" s="106"/>
+      <c r="X32" s="106"/>
+      <c r="Y32" s="106"/>
+      <c r="Z32" s="107"/>
+      <c r="AA32" s="96" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB32" s="97"/>
+      <c r="AC32" s="97"/>
+      <c r="AD32" s="98"/>
+    </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -9000,16 +9566,6 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:N28"/>
@@ -9020,18 +9576,33 @@
     <mergeCell ref="K30:N30"/>
     <mergeCell ref="O30:Z30"/>
     <mergeCell ref="AA30:AD30"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="O29:Z29"/>
+    <mergeCell ref="AA29:AD29"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="O32:Z32"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="O31:Z31"/>
+    <mergeCell ref="AA31:AD31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2C3EC1-EE98-46F1-AEA6-DC77394D1F05}">
-  <dimension ref="A2:AJ32"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B677B27-234C-476D-B8EF-219F9D7EEBD0}">
+  <dimension ref="A2:AJ29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="AL22" sqref="AL22"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5"/>
@@ -9040,101 +9611,86 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:36">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128" t="s">
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="129" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129"/>
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="129"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="128"/>
+      <c r="U2" s="128"/>
+      <c r="V2" s="128"/>
+      <c r="W2" s="128"/>
+      <c r="X2" s="128"/>
+      <c r="Y2" s="128"/>
+      <c r="Z2" s="128"/>
+      <c r="AA2" s="128"/>
+      <c r="AB2" s="128"/>
+      <c r="AC2" s="128"/>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="128"/>
+      <c r="AG2" s="128"/>
+      <c r="AH2" s="128"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="127"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="128"/>
+      <c r="T3" s="128"/>
+      <c r="U3" s="128"/>
+      <c r="V3" s="128"/>
+      <c r="W3" s="128"/>
+      <c r="X3" s="128"/>
+      <c r="Y3" s="128"/>
+      <c r="Z3" s="128"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="128"/>
+      <c r="AC3" s="128"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="128"/>
+      <c r="AH3" s="128"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
     </row>
-    <row r="11" spans="1:36">
-      <c r="V11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36">
-      <c r="V15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="2:30">
-      <c r="V17" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="21" spans="2:30">
       <c r="V21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:30">
@@ -9159,33 +9715,33 @@
       <c r="L28" s="97"/>
       <c r="M28" s="97"/>
       <c r="N28" s="98"/>
-      <c r="O28" s="102" t="s">
+      <c r="O28" s="99" t="s">
         <v>82</v>
       </c>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="105" t="s">
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="101"/>
+      <c r="AA28" s="102" t="s">
         <v>83</v>
       </c>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="107"/>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="103"/>
+      <c r="AD28" s="104"/>
     </row>
     <row r="29" spans="2:30">
       <c r="B29" s="2">
         <v>1</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>10</v>
+        <v>109</v>
       </c>
       <c r="D29" s="97"/>
       <c r="E29" s="97"/>
@@ -9202,20 +9758,20 @@
       <c r="L29" s="97"/>
       <c r="M29" s="97"/>
       <c r="N29" s="98"/>
-      <c r="O29" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="101"/>
+      <c r="O29" s="105" t="s">
+        <v>110</v>
+      </c>
+      <c r="P29" s="106"/>
+      <c r="Q29" s="106"/>
+      <c r="R29" s="106"/>
+      <c r="S29" s="106"/>
+      <c r="T29" s="106"/>
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="106"/>
+      <c r="Z29" s="107"/>
       <c r="AA29" s="96" t="s">
         <v>86</v>
       </c>
@@ -9223,157 +9779,13 @@
       <c r="AC29" s="97"/>
       <c r="AD29" s="98"/>
     </row>
-    <row r="30" spans="2:30">
-      <c r="B30" s="2">
-        <v>2</v>
-      </c>
-      <c r="C30" s="96" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="100"/>
-      <c r="R30" s="100"/>
-      <c r="S30" s="100"/>
-      <c r="T30" s="100"/>
-      <c r="U30" s="100"/>
-      <c r="V30" s="100"/>
-      <c r="W30" s="100"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="100"/>
-      <c r="Z30" s="101"/>
-      <c r="AA30" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="98"/>
-    </row>
-    <row r="31" spans="2:30">
-      <c r="B31" s="2">
-        <v>3</v>
-      </c>
-      <c r="C31" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="100"/>
-      <c r="R31" s="100"/>
-      <c r="S31" s="100"/>
-      <c r="T31" s="100"/>
-      <c r="U31" s="100"/>
-      <c r="V31" s="100"/>
-      <c r="W31" s="100"/>
-      <c r="X31" s="100"/>
-      <c r="Y31" s="100"/>
-      <c r="Z31" s="101"/>
-      <c r="AA31" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB31" s="97"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="98"/>
-    </row>
-    <row r="32" spans="2:30" ht="16.5" customHeight="1">
-      <c r="B32" s="2">
-        <v>4</v>
-      </c>
-      <c r="C32" s="96" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="96" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="100"/>
-      <c r="R32" s="100"/>
-      <c r="S32" s="100"/>
-      <c r="T32" s="100"/>
-      <c r="U32" s="100"/>
-      <c r="V32" s="100"/>
-      <c r="W32" s="100"/>
-      <c r="X32" s="100"/>
-      <c r="Y32" s="100"/>
-      <c r="Z32" s="101"/>
-      <c r="AA32" s="96" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB32" s="97"/>
-      <c r="AC32" s="97"/>
-      <c r="AD32" s="98"/>
-    </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:Z31"/>
-    <mergeCell ref="AA31:AD31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="O32:Z32"/>
-    <mergeCell ref="AA32:AD32"/>
+  <mergeCells count="27">
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="K29:N29"/>
     <mergeCell ref="O29:Z29"/>
     <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="O30:Z30"/>
-    <mergeCell ref="AA30:AD30"/>
     <mergeCell ref="AG3:AH3"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="G28:J28"/>
@@ -9402,190 +9814,361 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B677B27-234C-476D-B8EF-219F9D7EEBD0}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8A25C5-2FAB-49D7-9F17-BF4724B79200}">
   <dimension ref="A2:AJ29"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="26" max="26" width="9.5" customWidth="1"/>
+    <col min="1" max="5" width="3.625" style="7"/>
+    <col min="6" max="6" width="5.25" style="7" customWidth="1"/>
+    <col min="7" max="25" width="3.625" style="7"/>
+    <col min="26" max="26" width="3.625" style="7" customWidth="1"/>
+    <col min="27" max="16384" width="3.625" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36">
-      <c r="A2" s="127"/>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128" t="s">
+    <row r="2" spans="1:36" ht="19.5">
+      <c r="A2" s="118"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="130" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="128"/>
-      <c r="K2" s="128"/>
-      <c r="L2" s="128"/>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="128"/>
-      <c r="P2" s="128"/>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="127"/>
-      <c r="T2" s="127"/>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
-      <c r="AA2" s="127"/>
-      <c r="AB2" s="127"/>
-      <c r="AC2" s="127"/>
-      <c r="AD2" s="127"/>
-      <c r="AE2" s="127"/>
-      <c r="AF2" s="127"/>
-      <c r="AG2" s="127"/>
-      <c r="AH2" s="127"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="128"/>
-      <c r="J3" s="128"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="128"/>
-      <c r="M3" s="128"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="127"/>
-      <c r="T3" s="127"/>
-      <c r="U3" s="127"/>
-      <c r="V3" s="127"/>
-      <c r="W3" s="127"/>
-      <c r="X3" s="127"/>
-      <c r="Y3" s="127"/>
-      <c r="Z3" s="127"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="127"/>
-      <c r="AC3" s="127"/>
-      <c r="AD3" s="127"/>
-      <c r="AE3" s="127"/>
-      <c r="AF3" s="127"/>
-      <c r="AG3" s="127"/>
-      <c r="AH3" s="127"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-    </row>
-    <row r="21" spans="2:30">
-      <c r="V21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30">
-      <c r="B28" s="2" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="130"/>
+      <c r="K2" s="130"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="130"/>
+      <c r="S2" s="118"/>
+      <c r="T2" s="118"/>
+      <c r="U2" s="118"/>
+      <c r="V2" s="118"/>
+      <c r="W2" s="118"/>
+      <c r="X2" s="118"/>
+      <c r="Y2" s="118"/>
+      <c r="Z2" s="118"/>
+      <c r="AA2" s="118"/>
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="118"/>
+      <c r="AD2" s="118"/>
+      <c r="AE2" s="118"/>
+      <c r="AF2" s="118"/>
+      <c r="AG2" s="118"/>
+      <c r="AH2" s="118"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+    </row>
+    <row r="3" spans="1:36" ht="19.5">
+      <c r="A3" s="118"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
+      <c r="L3" s="130"/>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="S3" s="118"/>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118"/>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="118"/>
+      <c r="AF3" s="118"/>
+      <c r="AG3" s="118"/>
+      <c r="AH3" s="118"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+    </row>
+    <row r="24" spans="2:30">
+      <c r="B24" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="96" t="s">
+      <c r="C24" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="96" t="s">
-        <v>97</v>
-      </c>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="96" t="s">
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="109" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="109" t="s">
         <v>81</v>
       </c>
-      <c r="L28" s="97"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="102" t="s">
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="111"/>
+      <c r="O24" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="P28" s="103"/>
-      <c r="Q28" s="103"/>
-      <c r="R28" s="103"/>
-      <c r="S28" s="103"/>
-      <c r="T28" s="103"/>
-      <c r="U28" s="103"/>
-      <c r="V28" s="103"/>
-      <c r="W28" s="103"/>
-      <c r="X28" s="103"/>
-      <c r="Y28" s="103"/>
-      <c r="Z28" s="104"/>
-      <c r="AA28" s="105" t="s">
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="115"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
+      <c r="V24" s="115"/>
+      <c r="W24" s="115"/>
+      <c r="X24" s="115"/>
+      <c r="Y24" s="115"/>
+      <c r="Z24" s="116"/>
+      <c r="AA24" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="107"/>
-    </row>
-    <row r="29" spans="2:30">
-      <c r="B29" s="2">
+      <c r="AB24" s="115"/>
+      <c r="AC24" s="115"/>
+      <c r="AD24" s="116"/>
+    </row>
+    <row r="25" spans="2:30" ht="19.5">
+      <c r="B25" s="42">
         <v>1</v>
       </c>
-      <c r="C29" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="96" t="s">
-        <v>99</v>
-      </c>
-      <c r="L29" s="97"/>
-      <c r="M29" s="97"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="100"/>
-      <c r="R29" s="100"/>
-      <c r="S29" s="100"/>
-      <c r="T29" s="100"/>
-      <c r="U29" s="100"/>
-      <c r="V29" s="100"/>
-      <c r="W29" s="100"/>
-      <c r="X29" s="100"/>
-      <c r="Y29" s="100"/>
-      <c r="Z29" s="101"/>
-      <c r="AA29" s="96" t="s">
+      <c r="C25" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="112" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="55"/>
+      <c r="X25" s="55"/>
+      <c r="Y25" s="55"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="109" t="s">
         <v>86</v>
       </c>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="98"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="111"/>
+    </row>
+    <row r="26" spans="2:30">
+      <c r="B26" s="42">
+        <v>2</v>
+      </c>
+      <c r="C26" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="111"/>
+      <c r="G26" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="L26" s="110"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="111"/>
+      <c r="O26" s="112" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="55"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="111"/>
+    </row>
+    <row r="27" spans="2:30">
+      <c r="B27" s="42">
+        <v>3</v>
+      </c>
+      <c r="C27" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="L27" s="110"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="112" t="s">
+        <v>118</v>
+      </c>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="55"/>
+      <c r="X27" s="55"/>
+      <c r="Y27" s="55"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="111"/>
+    </row>
+    <row r="28" spans="2:30" ht="16.5" customHeight="1">
+      <c r="B28" s="42">
+        <v>4</v>
+      </c>
+      <c r="C28" s="109" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="110"/>
+      <c r="M28" s="110"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="112" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="55"/>
+      <c r="X28" s="55"/>
+      <c r="Y28" s="55"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB28" s="110"/>
+      <c r="AC28" s="110"/>
+      <c r="AD28" s="111"/>
+    </row>
+    <row r="29" spans="2:30" ht="16.5" customHeight="1">
+      <c r="B29" s="42">
+        <v>5</v>
+      </c>
+      <c r="C29" s="109" t="s">
+        <v>121</v>
+      </c>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="109" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="112" t="s">
+        <v>122</v>
+      </c>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="109" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="110"/>
+      <c r="AD29" s="111"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="47">
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="AG2:AH2"/>
@@ -9603,11 +10186,31 @@
     <mergeCell ref="X2:Y2"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="O24:Z24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="O26:Z26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="O25:Z25"/>
+    <mergeCell ref="AA25:AD25"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="G28:J28"/>
     <mergeCell ref="K28:N28"/>
     <mergeCell ref="O28:Z28"/>
     <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="O27:Z27"/>
+    <mergeCell ref="AA27:AD27"/>
     <mergeCell ref="C29:F29"/>
     <mergeCell ref="G29:J29"/>
     <mergeCell ref="K29:N29"/>
@@ -9619,420 +10222,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB8A25C5-2FAB-49D7-9F17-BF4724B79200}">
-  <dimension ref="A2:AJ31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="AB22" sqref="AB22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="5" width="3.625" style="7"/>
-    <col min="6" max="6" width="5.25" style="7" customWidth="1"/>
-    <col min="7" max="25" width="3.625" style="7"/>
-    <col min="26" max="26" width="3.625" style="7" customWidth="1"/>
-    <col min="27" max="16384" width="3.625" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:36" ht="19.5">
-      <c r="A2" s="117"/>
-      <c r="B2" s="117"/>
-      <c r="C2" s="129" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-      <c r="H2" s="129"/>
-      <c r="I2" s="129"/>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-    </row>
-    <row r="3" spans="1:36" ht="19.5">
-      <c r="A3" s="117"/>
-      <c r="B3" s="117"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="129"/>
-      <c r="M3" s="129"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="117"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="117"/>
-      <c r="AC3" s="117"/>
-      <c r="AD3" s="117"/>
-      <c r="AE3" s="117"/>
-      <c r="AF3" s="117"/>
-      <c r="AG3" s="117"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="10"/>
-      <c r="AJ3" s="10"/>
-    </row>
-    <row r="26" spans="2:30">
-      <c r="B26" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="109" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="111"/>
-      <c r="G26" s="109" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="109" t="s">
-        <v>81</v>
-      </c>
-      <c r="L26" s="110"/>
-      <c r="M26" s="110"/>
-      <c r="N26" s="111"/>
-      <c r="O26" s="112" t="s">
-        <v>82</v>
-      </c>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="113"/>
-      <c r="R26" s="113"/>
-      <c r="S26" s="113"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="113"/>
-      <c r="V26" s="113"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="113"/>
-      <c r="Z26" s="114"/>
-      <c r="AA26" s="112" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB26" s="113"/>
-      <c r="AC26" s="113"/>
-      <c r="AD26" s="114"/>
-    </row>
-    <row r="27" spans="2:30" ht="19.5">
-      <c r="B27" s="42">
-        <v>1</v>
-      </c>
-      <c r="C27" s="116" t="s">
-        <v>110</v>
-      </c>
-      <c r="D27" s="110"/>
-      <c r="E27" s="110"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-      <c r="N27" s="111"/>
-      <c r="O27" s="115" t="s">
-        <v>113</v>
-      </c>
-      <c r="P27" s="83"/>
-      <c r="Q27" s="83"/>
-      <c r="R27" s="83"/>
-      <c r="S27" s="83"/>
-      <c r="T27" s="83"/>
-      <c r="U27" s="83"/>
-      <c r="V27" s="83"/>
-      <c r="W27" s="83"/>
-      <c r="X27" s="83"/>
-      <c r="Y27" s="83"/>
-      <c r="Z27" s="84"/>
-      <c r="AA27" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB27" s="110"/>
-      <c r="AC27" s="110"/>
-      <c r="AD27" s="111"/>
-    </row>
-    <row r="28" spans="2:30">
-      <c r="B28" s="42">
-        <v>2</v>
-      </c>
-      <c r="C28" s="109" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="110"/>
-      <c r="E28" s="110"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="H28" s="110"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="115" t="s">
-        <v>115</v>
-      </c>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="83"/>
-      <c r="T28" s="83"/>
-      <c r="U28" s="83"/>
-      <c r="V28" s="83"/>
-      <c r="W28" s="83"/>
-      <c r="X28" s="83"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="84"/>
-      <c r="AA28" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB28" s="110"/>
-      <c r="AC28" s="110"/>
-      <c r="AD28" s="111"/>
-    </row>
-    <row r="29" spans="2:30">
-      <c r="B29" s="42">
-        <v>3</v>
-      </c>
-      <c r="C29" s="109" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="111"/>
-      <c r="K29" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="L29" s="110"/>
-      <c r="M29" s="110"/>
-      <c r="N29" s="111"/>
-      <c r="O29" s="115" t="s">
-        <v>117</v>
-      </c>
-      <c r="P29" s="83"/>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83"/>
-      <c r="T29" s="83"/>
-      <c r="U29" s="83"/>
-      <c r="V29" s="83"/>
-      <c r="W29" s="83"/>
-      <c r="X29" s="83"/>
-      <c r="Y29" s="83"/>
-      <c r="Z29" s="84"/>
-      <c r="AA29" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB29" s="110"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="111"/>
-    </row>
-    <row r="30" spans="2:30" ht="16.5" customHeight="1">
-      <c r="B30" s="42">
-        <v>4</v>
-      </c>
-      <c r="C30" s="109" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="110"/>
-      <c r="E30" s="110"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="H30" s="110"/>
-      <c r="I30" s="110"/>
-      <c r="J30" s="111"/>
-      <c r="K30" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="L30" s="110"/>
-      <c r="M30" s="110"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="115" t="s">
-        <v>119</v>
-      </c>
-      <c r="P30" s="83"/>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="83"/>
-      <c r="U30" s="83"/>
-      <c r="V30" s="83"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="83"/>
-      <c r="Y30" s="83"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB30" s="110"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="111"/>
-    </row>
-    <row r="31" spans="2:30" ht="16.5" customHeight="1">
-      <c r="B31" s="42">
-        <v>5</v>
-      </c>
-      <c r="C31" s="109" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="109" t="s">
-        <v>111</v>
-      </c>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="111"/>
-      <c r="K31" s="109" t="s">
-        <v>112</v>
-      </c>
-      <c r="L31" s="110"/>
-      <c r="M31" s="110"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="115" t="s">
-        <v>121</v>
-      </c>
-      <c r="P31" s="83"/>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="83"/>
-      <c r="T31" s="83"/>
-      <c r="U31" s="83"/>
-      <c r="V31" s="83"/>
-      <c r="W31" s="83"/>
-      <c r="X31" s="83"/>
-      <c r="Y31" s="83"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="109" t="s">
-        <v>86</v>
-      </c>
-      <c r="AB31" s="110"/>
-      <c r="AC31" s="110"/>
-      <c r="AD31" s="111"/>
-    </row>
-  </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="O31:Z31"/>
-    <mergeCell ref="AA31:AD31"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="O29:Z29"/>
-    <mergeCell ref="AA29:AD29"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="O30:Z30"/>
-    <mergeCell ref="AA30:AD30"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="O27:Z27"/>
-    <mergeCell ref="AA27:AD27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="O28:Z28"/>
-    <mergeCell ref="AA28:AD28"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="O26:Z26"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:R3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1D4A42-32B2-44F9-A934-14E0FFE3D7EF}">
-  <dimension ref="A6:R217"/>
+  <dimension ref="A5:R285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A270" workbookViewId="0">
+      <selection activeCell="K278" sqref="K278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -10040,1065 +10235,1041 @@
     <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
+    <row r="5" spans="2:4">
+      <c r="B5" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="6" t="s">
-        <v>122</v>
+      <c r="C6" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="C7" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" s="8" customFormat="1">
       <c r="C8" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" s="8" customFormat="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="C9" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="C10" s="6" t="s">
-        <v>126</v>
+      <c r="D10" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="D11" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="D12" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="D13" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="6" t="s">
-        <v>130</v>
+      <c r="C15" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="C16" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" s="8" customFormat="1">
       <c r="C17" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" s="8" customFormat="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="C18" s="6" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="C20" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="C21" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="C22" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="6" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="6" t="s">
-        <v>136</v>
+      <c r="C27" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="2:3">
       <c r="C28" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" s="8" customFormat="1">
       <c r="C29" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" s="8" customFormat="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
       <c r="C30" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="C31" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="C32" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="2:4">
-      <c r="C33" s="6" t="s">
-        <v>142</v>
+      <c r="D33" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="D34" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="D35" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="2:4">
-      <c r="D36" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4">
-      <c r="C37" s="6" t="s">
-        <v>146</v>
+      <c r="C36" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:4">
-      <c r="B39" s="6" t="s">
-        <v>147</v>
+      <c r="C39" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="8" customFormat="1">
       <c r="C41" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" s="8" customFormat="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
       <c r="C42" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:4">
-      <c r="C44" s="6" t="s">
-        <v>152</v>
+      <c r="D44" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="D45" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4">
-      <c r="D46" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="6" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="2:4">
-      <c r="B48" s="6" t="s">
-        <v>155</v>
+      <c r="C48" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="2:4">
       <c r="C49" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" s="8" customFormat="1">
       <c r="C50" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" s="8" customFormat="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
       <c r="C51" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="C52" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="2:4">
-      <c r="C53" s="6" t="s">
-        <v>159</v>
+      <c r="D53" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="D54" s="6" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="2:4">
       <c r="D55" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4">
-      <c r="D56" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="2:4">
-      <c r="B58" s="6" t="s">
-        <v>162</v>
+      <c r="C58" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="C59" s="6" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" s="8" customFormat="1">
       <c r="C60" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" s="8" customFormat="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
       <c r="C61" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="2:4">
       <c r="C62" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="2:4">
-      <c r="C63" s="6" t="s">
-        <v>167</v>
+      <c r="D63" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="2:4">
       <c r="D64" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="2:4">
       <c r="D65" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="2:4">
-      <c r="D66" s="6" t="s">
-        <v>170</v>
+      <c r="C66" s="6" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="67" spans="2:4">
-      <c r="C67" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4">
-      <c r="D68" s="6" t="s">
-        <v>172</v>
+      <c r="D67" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69" s="6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="70" spans="2:4">
-      <c r="B70" s="6" t="s">
-        <v>173</v>
+      <c r="C70" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="2:4">
       <c r="C71" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="72" spans="2:4">
-      <c r="C72" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4">
-      <c r="D73" s="6" t="s">
-        <v>176</v>
+      <c r="D72" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="75" spans="2:4">
-      <c r="B75" s="6" t="s">
-        <v>177</v>
+      <c r="C75" s="6" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="76" spans="2:4">
       <c r="C76" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="2:4">
-      <c r="C77" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4">
-      <c r="D78" s="6" t="s">
-        <v>176</v>
+      <c r="D77" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="2:4">
-      <c r="B80" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3">
+      <c r="C80" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
       <c r="C81" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" s="8" customFormat="1">
       <c r="C82" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" s="8" customFormat="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
       <c r="C83" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="D84" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="C85" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="C88" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="C89" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
-      <c r="C84" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3">
-      <c r="C85" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="86" spans="2:3">
-      <c r="C86" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="88" spans="2:3">
-      <c r="B88" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="89" spans="2:3">
-      <c r="C89" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="2:5" s="8" customFormat="1">
       <c r="C90" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="91" spans="2:3" s="8" customFormat="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
       <c r="C91" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="92" spans="2:3">
-      <c r="C92" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="93" spans="2:3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="D92" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
       <c r="C93" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="C94" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="D95" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="E96" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="E97" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="D98" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="E99" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="C100" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="C103" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="C104" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" s="8" customFormat="1">
+      <c r="C105" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="C106" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
-      <c r="B95" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3">
-      <c r="C96" s="6" t="s">
+    <row r="107" spans="2:5">
+      <c r="D107" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="C108" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
-      <c r="C97" s="6" t="s">
+    <row r="109" spans="2:5">
+      <c r="C109" s="6" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="98" spans="2:3" s="8" customFormat="1">
-      <c r="C98" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3">
-      <c r="C99" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3">
-      <c r="C100" s="6" t="s">
+      <c r="D109" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="D110" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
-      <c r="C101" s="6" t="s">
+    <row r="111" spans="2:5">
+      <c r="E111" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
-      <c r="B106" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3">
-      <c r="C107" s="6" t="s">
+    <row r="112" spans="2:5">
+      <c r="D112" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
-      <c r="C108" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" s="8" customFormat="1">
-      <c r="C109" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3">
-      <c r="C110" s="6" t="s">
+    <row r="113" spans="2:5">
+      <c r="E113" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
-      <c r="C111" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="113" spans="1:18">
-      <c r="C113" s="6" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="2:5">
       <c r="C114" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="115" spans="1:18">
-      <c r="C115" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="8"/>
-      <c r="L115" s="8"/>
-      <c r="M115" s="8"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="8"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
-    </row>
-    <row r="116" spans="1:18">
-      <c r="C116" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="117" spans="1:18">
-      <c r="C117" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119" spans="1:18">
-      <c r="C119" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="120" spans="1:18">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
       <c r="C120" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="121" spans="1:18">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
       <c r="C121" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
-      <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="8"/>
-      <c r="P121" s="8"/>
-      <c r="Q121" s="8"/>
-    </row>
-    <row r="122" spans="1:18">
+    </row>
+    <row r="122" spans="2:5" s="8" customFormat="1">
       <c r="C122" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="123" spans="1:18">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
       <c r="C123" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="125" spans="1:18">
-      <c r="B125" s="6" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="126" spans="1:18">
-      <c r="C126" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="127" spans="1:18">
-      <c r="C127" s="6" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="128" spans="1:18">
-      <c r="A128" s="8"/>
-      <c r="B128" s="8"/>
-      <c r="C128" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="8"/>
-    </row>
-    <row r="129" spans="1:17">
-      <c r="C129" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="130" spans="1:17">
-      <c r="C130" s="6" t="s">
+    <row r="124" spans="2:5">
+      <c r="C124" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="132" spans="1:17">
-      <c r="C132" s="6" t="s">
+    <row r="125" spans="2:5">
+      <c r="D125" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="133" spans="1:17">
+    <row r="126" spans="2:5">
+      <c r="D126" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="E127" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="D128" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="129" spans="3:17">
+      <c r="E129" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="130" spans="3:17">
+      <c r="D130" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="131" spans="3:17">
+      <c r="E131" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="132" spans="3:17">
+      <c r="E132" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="133" spans="3:17">
       <c r="C133" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8"/>
-      <c r="C134" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
-      <c r="P134" s="8"/>
-      <c r="Q134" s="8"/>
-    </row>
-    <row r="135" spans="1:17">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="135" spans="3:17">
       <c r="C135" s="6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="136" spans="3:17">
       <c r="C136" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17">
-      <c r="B138" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="3:17">
+      <c r="C137" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+    </row>
+    <row r="138" spans="3:17">
+      <c r="C138" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="139" spans="3:17">
       <c r="C139" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17">
-      <c r="C140" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17">
-      <c r="A141" s="8"/>
-      <c r="B141" s="8"/>
-      <c r="C141" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
-      <c r="F141" s="8"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="8"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8"/>
-      <c r="O141" s="8"/>
-      <c r="P141" s="8"/>
-      <c r="Q141" s="8"/>
-    </row>
-    <row r="142" spans="1:17">
-      <c r="C142" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17">
-      <c r="C143" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="145" spans="1:17">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="140" spans="3:17">
+      <c r="D140" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="141" spans="3:17">
+      <c r="D141" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="142" spans="3:17">
+      <c r="E142" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="143" spans="3:17">
+      <c r="D143" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="3:17">
+      <c r="E144" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="2:17">
       <c r="C145" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="146" spans="1:17">
-      <c r="C146" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
+    <row r="147" spans="2:17">
       <c r="C147" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="148" spans="2:17">
+      <c r="C148" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-      <c r="O147" s="8"/>
-      <c r="P147" s="8"/>
-      <c r="Q147" s="8"/>
-    </row>
-    <row r="148" spans="1:17">
-      <c r="C148" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="149" spans="1:17">
+    </row>
+    <row r="149" spans="2:17">
       <c r="C149" s="6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17">
-      <c r="B151" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D149" s="8"/>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="8"/>
+    </row>
+    <row r="150" spans="2:17">
+      <c r="C150" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="151" spans="2:17">
+      <c r="C151" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="153" spans="1:17">
-      <c r="B153" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="154" spans="1:17">
-      <c r="C154" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="155" spans="1:17">
-      <c r="C155" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="156" spans="1:17">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-      <c r="G156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="I156" s="8"/>
-      <c r="J156" s="8"/>
-      <c r="K156" s="8"/>
-      <c r="L156" s="8"/>
-      <c r="M156" s="8"/>
-      <c r="N156" s="8"/>
-      <c r="O156" s="8"/>
-      <c r="P156" s="8"/>
-      <c r="Q156" s="8"/>
-    </row>
-    <row r="157" spans="1:17">
-      <c r="C157" s="6" t="s">
+    <row r="152" spans="2:17">
+      <c r="D152" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="153" spans="2:17">
+      <c r="E153" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="158" spans="1:17">
+    <row r="154" spans="2:17">
+      <c r="D154" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="155" spans="2:17">
+      <c r="E155" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="156" spans="2:17">
+      <c r="E156" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="157" spans="2:17">
+      <c r="E157" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="158" spans="2:17">
       <c r="C158" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="159" spans="1:17">
-      <c r="C159" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="160" spans="1:17">
-      <c r="C160" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="162" spans="1:17">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="160" spans="2:17">
+      <c r="B160" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18">
+      <c r="C161" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18">
       <c r="C162" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="163" spans="1:17">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8"/>
       <c r="C163" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="164" spans="1:17">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="D163" s="8"/>
+      <c r="E163" s="8"/>
+      <c r="F163" s="8"/>
+      <c r="G163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="N163" s="8"/>
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+      <c r="Q163" s="8"/>
+      <c r="R163" s="8"/>
+    </row>
+    <row r="164" spans="1:18">
       <c r="C164" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-      <c r="G164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="I164" s="8"/>
-      <c r="J164" s="8"/>
-      <c r="K164" s="8"/>
-      <c r="L164" s="8"/>
-      <c r="M164" s="8"/>
-      <c r="N164" s="8"/>
-      <c r="O164" s="8"/>
-      <c r="P164" s="8"/>
-      <c r="Q164" s="8"/>
-    </row>
-    <row r="165" spans="1:17">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18">
       <c r="C165" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="166" spans="1:17">
-      <c r="C166" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="167" spans="1:17">
-      <c r="C167" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="172" spans="1:17">
-      <c r="B172" s="6" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="173" spans="1:17">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18">
+      <c r="E166" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18">
+      <c r="D167" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="168" spans="1:18">
+      <c r="E168" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="169" spans="1:18">
+      <c r="E169" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="170" spans="1:18">
+      <c r="C170" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="172" spans="1:18">
+      <c r="C172" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="173" spans="1:18">
       <c r="C173" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="174" spans="1:17">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="174" spans="1:18">
+      <c r="A174" s="8"/>
+      <c r="B174" s="8"/>
       <c r="C174" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="175" spans="1:17">
-      <c r="A175" s="8"/>
-      <c r="B175" s="8"/>
+        <v>126</v>
+      </c>
+      <c r="D174" s="8"/>
+      <c r="E174" s="8"/>
+      <c r="F174" s="8"/>
+      <c r="G174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="I174" s="8"/>
+      <c r="J174" s="8"/>
+      <c r="K174" s="8"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="8"/>
+      <c r="N174" s="8"/>
+      <c r="O174" s="8"/>
+      <c r="P174" s="8"/>
+      <c r="Q174" s="8"/>
+    </row>
+    <row r="175" spans="1:18">
       <c r="C175" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="8"/>
-      <c r="O175" s="8"/>
-      <c r="P175" s="8"/>
-      <c r="Q175" s="8"/>
-    </row>
-    <row r="176" spans="1:17">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
       <c r="C176" s="6" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="177" spans="1:17">
-      <c r="C177" s="6" t="s">
-        <v>240</v>
+      <c r="E177" s="6" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="178" spans="1:17">
-      <c r="C178" s="6" t="s">
-        <v>229</v>
+      <c r="D178" s="6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="179" spans="1:17">
-      <c r="C179" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="181" spans="1:17">
-      <c r="B181" s="6" t="s">
-        <v>242</v>
+      <c r="E179" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17">
+      <c r="C180" s="6" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="182" spans="1:17">
-      <c r="C182" s="6" t="s">
-        <v>243</v>
+      <c r="B182" s="6" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="183" spans="1:17">
       <c r="C183" s="6" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="1:17">
-      <c r="A184" s="8"/>
-      <c r="B184" s="8"/>
       <c r="C184" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-      <c r="G184" s="8"/>
-      <c r="H184" s="8"/>
-      <c r="I184" s="8"/>
-      <c r="J184" s="8"/>
-      <c r="K184" s="8"/>
-      <c r="L184" s="8"/>
-      <c r="M184" s="8"/>
-      <c r="N184" s="8"/>
-      <c r="O184" s="8"/>
-      <c r="P184" s="8"/>
-      <c r="Q184" s="8"/>
+        <v>258</v>
+      </c>
     </row>
     <row r="185" spans="1:17">
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
       <c r="C185" s="6" t="s">
-        <v>245</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="8"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="8"/>
+      <c r="N185" s="8"/>
+      <c r="O185" s="8"/>
+      <c r="P185" s="8"/>
+      <c r="Q185" s="8"/>
     </row>
     <row r="186" spans="1:17">
       <c r="C186" s="6" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="187" spans="1:17">
       <c r="C187" s="6" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
     </row>
     <row r="188" spans="1:17">
-      <c r="C188" s="6" t="s">
-        <v>247</v>
+      <c r="D188" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17">
+      <c r="E189" s="6" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="190" spans="1:17">
-      <c r="B190" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="191" spans="1:17">
-      <c r="C191" s="6" t="s">
-        <v>249</v>
+      <c r="C190" s="6" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="192" spans="1:17">
       <c r="C192" s="6" t="s">
-        <v>193</v>
+        <v>264</v>
       </c>
     </row>
     <row r="193" spans="1:17">
-      <c r="A193" s="8"/>
-      <c r="B193" s="8"/>
       <c r="C193" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-      <c r="G193" s="8"/>
-      <c r="H193" s="8"/>
-      <c r="I193" s="8"/>
-      <c r="J193" s="8"/>
-      <c r="K193" s="8"/>
-      <c r="L193" s="8"/>
-      <c r="M193" s="8"/>
-      <c r="N193" s="8"/>
-      <c r="O193" s="8"/>
-      <c r="P193" s="8"/>
-      <c r="Q193" s="8"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="194" spans="1:17">
+      <c r="A194" s="8"/>
+      <c r="B194" s="8"/>
       <c r="C194" s="6" t="s">
-        <v>251</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8"/>
+      <c r="F194" s="8"/>
+      <c r="G194" s="8"/>
+      <c r="H194" s="8"/>
+      <c r="I194" s="8"/>
+      <c r="J194" s="8"/>
+      <c r="K194" s="8"/>
+      <c r="L194" s="8"/>
+      <c r="M194" s="8"/>
+      <c r="N194" s="8"/>
+      <c r="O194" s="8"/>
+      <c r="P194" s="8"/>
+      <c r="Q194" s="8"/>
     </row>
     <row r="195" spans="1:17">
       <c r="C195" s="6" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
     </row>
     <row r="196" spans="1:17">
-      <c r="D196" s="6" t="s">
-        <v>253</v>
+      <c r="C196" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="197" spans="1:17">
-      <c r="D197" s="6" t="s">
-        <v>254</v>
+      <c r="E197" s="6" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="198" spans="1:17">
-      <c r="C198" s="6" t="s">
-        <v>255</v>
+      <c r="D198" s="6" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="199" spans="1:17">
-      <c r="D199" s="6" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="200" spans="1:17">
-      <c r="C200" s="6" t="s">
-        <v>257</v>
+      <c r="C199" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17">
+      <c r="B201" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="202" spans="1:17">
-      <c r="B202" s="6" t="s">
-        <v>258</v>
+      <c r="C202" s="6" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="203" spans="1:17">
       <c r="C203" s="6" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
     </row>
     <row r="204" spans="1:17">
+      <c r="A204" s="8"/>
+      <c r="B204" s="8"/>
       <c r="C204" s="6" t="s">
-        <v>193</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D204" s="8"/>
+      <c r="E204" s="8"/>
+      <c r="F204" s="8"/>
+      <c r="G204" s="8"/>
+      <c r="H204" s="8"/>
+      <c r="I204" s="8"/>
+      <c r="J204" s="8"/>
+      <c r="K204" s="8"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="8"/>
+      <c r="N204" s="8"/>
+      <c r="O204" s="8"/>
+      <c r="P204" s="8"/>
+      <c r="Q204" s="8"/>
     </row>
     <row r="205" spans="1:17">
-      <c r="A205" s="8"/>
-      <c r="B205" s="8"/>
       <c r="C205" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
-      <c r="J205" s="8"/>
-      <c r="K205" s="8"/>
-      <c r="L205" s="8"/>
-      <c r="M205" s="8"/>
-      <c r="N205" s="8"/>
-      <c r="O205" s="8"/>
-      <c r="P205" s="8"/>
-      <c r="Q205" s="8"/>
+        <v>273</v>
+      </c>
     </row>
     <row r="206" spans="1:17">
       <c r="C206" s="6" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="1:17">
-      <c r="C207" s="6" t="s">
-        <v>261</v>
+      <c r="E207" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="208" spans="1:17">
       <c r="C208" s="6" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="210" spans="1:17">
-      <c r="B210" s="6" t="s">
-        <v>263</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17">
+      <c r="C209" s="6" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="1:17">
       <c r="C211" s="6" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:17">
       <c r="C212" s="6" t="s">
-        <v>265</v>
+        <v>182</v>
       </c>
     </row>
     <row r="213" spans="1:17">
       <c r="A213" s="8"/>
       <c r="B213" s="8"/>
       <c r="C213" s="6" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
@@ -11117,22 +11288,397 @@
     </row>
     <row r="214" spans="1:17">
       <c r="C214" s="6" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="215" spans="1:17">
       <c r="C215" s="6" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:17">
-      <c r="C216" s="6" t="s">
-        <v>261</v>
+      <c r="D216" s="6" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="217" spans="1:17">
-      <c r="C217" s="6" t="s">
-        <v>269</v>
+      <c r="D217" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17">
+      <c r="E218" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17">
+      <c r="D219" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17">
+      <c r="C220" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17">
+      <c r="B226" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17">
+      <c r="C227" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17">
+      <c r="C228" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17">
+      <c r="A229" s="8"/>
+      <c r="B229" s="8"/>
+      <c r="C229" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D229" s="8"/>
+      <c r="E229" s="8"/>
+      <c r="F229" s="8"/>
+      <c r="G229" s="8"/>
+      <c r="H229" s="8"/>
+      <c r="I229" s="8"/>
+      <c r="J229" s="8"/>
+      <c r="K229" s="8"/>
+      <c r="L229" s="8"/>
+      <c r="M229" s="8"/>
+      <c r="N229" s="8"/>
+      <c r="O229" s="8"/>
+      <c r="P229" s="8"/>
+      <c r="Q229" s="8"/>
+    </row>
+    <row r="230" spans="1:17">
+      <c r="C230" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17">
+      <c r="C231" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17">
+      <c r="D232" s="39" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17">
+      <c r="D233" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17">
+      <c r="E234" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17">
+      <c r="C235" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17">
+      <c r="C236" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17">
+      <c r="B238" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17">
+      <c r="C239" s="6" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17">
+      <c r="C240" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17">
+      <c r="A241" s="8"/>
+      <c r="B241" s="8"/>
+      <c r="C241" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D241" s="8"/>
+      <c r="E241" s="8"/>
+      <c r="F241" s="8"/>
+      <c r="G241" s="8"/>
+      <c r="H241" s="8"/>
+      <c r="I241" s="8"/>
+      <c r="J241" s="8"/>
+      <c r="K241" s="8"/>
+      <c r="L241" s="8"/>
+      <c r="M241" s="8"/>
+      <c r="N241" s="8"/>
+      <c r="O241" s="8"/>
+      <c r="P241" s="8"/>
+      <c r="Q241" s="8"/>
+    </row>
+    <row r="242" spans="1:17">
+      <c r="C242" s="6" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17">
+      <c r="C243" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17">
+      <c r="D244" s="117" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17">
+      <c r="C245" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17">
+      <c r="C246" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17">
+      <c r="B248" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17">
+      <c r="C249" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17">
+      <c r="C250" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17">
+      <c r="A251" s="8"/>
+      <c r="B251" s="8"/>
+      <c r="C251" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D251" s="8"/>
+      <c r="E251" s="8"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="8"/>
+      <c r="J251" s="8"/>
+      <c r="K251" s="8"/>
+      <c r="L251" s="8"/>
+      <c r="M251" s="8"/>
+      <c r="N251" s="8"/>
+      <c r="O251" s="8"/>
+      <c r="P251" s="8"/>
+      <c r="Q251" s="8"/>
+    </row>
+    <row r="252" spans="1:17">
+      <c r="C252" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17">
+      <c r="C253" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17">
+      <c r="D254" s="117" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17">
+      <c r="D255" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17">
+      <c r="C256" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17">
+      <c r="D257" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17">
+      <c r="D258" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17">
+      <c r="C259" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17">
+      <c r="D260" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17">
+      <c r="B262" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17">
+      <c r="C263" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17">
+      <c r="C264" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17">
+      <c r="A265" s="8"/>
+      <c r="B265" s="8"/>
+      <c r="C265" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D265" s="8"/>
+      <c r="E265" s="8"/>
+      <c r="F265" s="8"/>
+      <c r="G265" s="8"/>
+      <c r="H265" s="8"/>
+      <c r="I265" s="8"/>
+      <c r="J265" s="8"/>
+      <c r="K265" s="8"/>
+      <c r="L265" s="8"/>
+      <c r="M265" s="8"/>
+      <c r="N265" s="8"/>
+      <c r="O265" s="8"/>
+      <c r="P265" s="8"/>
+      <c r="Q265" s="8"/>
+    </row>
+    <row r="266" spans="1:17">
+      <c r="C266" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17">
+      <c r="C267" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17">
+      <c r="D268" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17">
+      <c r="D269" s="117" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17">
+      <c r="D270" s="6" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17">
+      <c r="C271" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17">
+      <c r="B273" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17">
+      <c r="C274" s="6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17">
+      <c r="C275" s="6" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17">
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="8"/>
+      <c r="G276" s="8"/>
+      <c r="H276" s="8"/>
+      <c r="I276" s="8"/>
+      <c r="J276" s="8"/>
+      <c r="K276" s="8"/>
+      <c r="L276" s="8"/>
+      <c r="M276" s="8"/>
+      <c r="N276" s="8"/>
+      <c r="O276" s="8"/>
+      <c r="P276" s="8"/>
+      <c r="Q276" s="8"/>
+    </row>
+    <row r="277" spans="1:17">
+      <c r="C277" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17">
+      <c r="C278" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17">
+      <c r="D279" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17">
+      <c r="D280" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17">
+      <c r="D281" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17">
+      <c r="D282" s="117" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17">
+      <c r="D283" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17">
+      <c r="C284" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17">
+      <c r="C285" s="6" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -11145,8 +11691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C981AD-4EA1-47FE-BE27-BD1FC193CB7A}">
   <dimension ref="B2:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -11161,10 +11707,10 @@
         <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>270</v>
+        <v>335</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -11172,10 +11718,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>272</v>
+        <v>337</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>273</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -11183,10 +11729,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>275</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -11222,6 +11768,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FECEEA90E6C82D42878B0C93C9D3B794" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="f369f01037ee818b0f969f4706753430">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cc33370e-d410-4501-9385-d2992b5403a5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44d0cbb28c67f87a15adc06bceb3984d" ns2:_="">
     <xsd:import namespace="cc33370e-d410-4501-9385-d2992b5403a5"/>
@@ -11353,15 +11908,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -11369,11 +11915,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC322778-324D-4D4F-98A8-156A3BBF7826}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7616D6A-9125-4B9E-AEB3-56564A06254D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7616D6A-9125-4B9E-AEB3-56564A06254D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC322778-324D-4D4F-98A8-156A3BBF7826}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
